--- a/static/data/stegen_raw.xlsx
+++ b/static/data/stegen_raw.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D2AA7A5-9758-4976-8DF1-5A45D3BA3629}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amrish Baidjoe\Desktop\Stegen files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03D4100C-15F0-42BA-97EB-025A8FAE9F41}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8194" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stegen_raw" sheetId="1" r:id="rId1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="34">
   <si>
     <t>Unique key</t>
   </si>
@@ -122,6 +127,12 @@
   <si>
     <t>1998-07-04</t>
   </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
 </sst>
 </file>
 
@@ -130,12 +141,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,14 +172,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,37 +526,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U292"/>
+  <dimension ref="A1:W292"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D2" sqref="D2:U292"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875"/>
-    <col min="4" max="5" width="3.85546875"/>
-    <col min="6" max="6" width="3.5703125"/>
+    <col min="2" max="2" width="2.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.84375"/>
+    <col min="4" max="5" width="3.84375"/>
+    <col min="6" max="6" width="3.53515625"/>
     <col min="7" max="7" width="7"/>
-    <col min="8" max="8" width="8.42578125"/>
-    <col min="9" max="9" width="8.28515625"/>
-    <col min="10" max="10" width="7.42578125"/>
-    <col min="11" max="11" width="8.5703125"/>
-    <col min="12" max="12" width="4.42578125"/>
-    <col min="13" max="13" width="6.7109375"/>
-    <col min="14" max="14" width="8.28515625"/>
-    <col min="15" max="15" width="6.5703125"/>
-    <col min="16" max="16" width="6.140625"/>
-    <col min="17" max="17" width="6.85546875"/>
-    <col min="18" max="18" width="10.28515625"/>
-    <col min="19" max="19" width="9.85546875"/>
-    <col min="20" max="20" width="8.28515625"/>
-    <col min="21" max="21" width="4.42578125"/>
-    <col min="22" max="1025" width="8.42578125"/>
+    <col min="8" max="8" width="8.3828125"/>
+    <col min="9" max="9" width="8.3046875"/>
+    <col min="10" max="10" width="7.3828125"/>
+    <col min="11" max="11" width="8.53515625"/>
+    <col min="12" max="12" width="4.3828125"/>
+    <col min="13" max="13" width="6.69140625"/>
+    <col min="14" max="14" width="8.3046875"/>
+    <col min="15" max="15" width="6.53515625"/>
+    <col min="16" max="16" width="6.15234375"/>
+    <col min="17" max="17" width="6.84375"/>
+    <col min="18" max="18" width="10.3046875"/>
+    <col min="19" max="19" width="9.84375"/>
+    <col min="20" max="20" width="8.3046875"/>
+    <col min="21" max="21" width="4.3828125"/>
+    <col min="22" max="22" width="9.23046875" style="3"/>
+    <col min="23" max="23" width="8.3828125" style="3"/>
+    <col min="24" max="1025" width="8.3828125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,8 +622,14 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>210</v>
       </c>
@@ -635,8 +693,14 @@
       <c r="U2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="4">
+        <v>47.977430568000003</v>
+      </c>
+      <c r="W2" s="5">
+        <v>7.9629103590000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>12</v>
       </c>
@@ -700,8 +764,14 @@
       <c r="U3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="4">
+        <v>47.981089158000003</v>
+      </c>
+      <c r="W3" s="5">
+        <v>7.9575499350000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>288</v>
       </c>
@@ -765,8 +835,14 @@
       <c r="U4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="4">
+        <v>47.981500183000001</v>
+      </c>
+      <c r="W4" s="5">
+        <v>7.9591769130000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>186</v>
       </c>
@@ -828,8 +904,14 @@
       <c r="U5" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" s="4">
+        <v>47.982554942</v>
+      </c>
+      <c r="W5" s="5">
+        <v>7.9582951279999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>20</v>
       </c>
@@ -893,8 +975,14 @@
       <c r="U6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="4">
+        <v>47.984994215</v>
+      </c>
+      <c r="W6" s="5">
+        <v>7.9712253549999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>148</v>
       </c>
@@ -958,8 +1046,14 @@
       <c r="U7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="4">
+        <v>47.984402691</v>
+      </c>
+      <c r="W7" s="5">
+        <v>7.9597745709999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>201</v>
       </c>
@@ -1023,8 +1117,14 @@
       <c r="U8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" s="4">
+        <v>47.984334806</v>
+      </c>
+      <c r="W8" s="5">
+        <v>7.9637601330000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>106</v>
       </c>
@@ -1088,8 +1188,14 @@
       <c r="U9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="4">
+        <v>47.980079336000003</v>
+      </c>
+      <c r="W9" s="5">
+        <v>7.9651644529999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>272</v>
       </c>
@@ -1153,8 +1259,14 @@
       <c r="U10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" s="4">
+        <v>47.979820805000003</v>
+      </c>
+      <c r="W10" s="5">
+        <v>7.9641438730000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>50</v>
       </c>
@@ -1218,8 +1330,14 @@
       <c r="U11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" s="4">
+        <v>47.979750635000002</v>
+      </c>
+      <c r="W11" s="5">
+        <v>7.9662281100000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>216</v>
       </c>
@@ -1283,8 +1401,14 @@
       <c r="U12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="4">
+        <v>47.983531743999997</v>
+      </c>
+      <c r="W12" s="5">
+        <v>7.9587815580000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>141</v>
       </c>
@@ -1346,8 +1470,14 @@
       <c r="U13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" s="4">
+        <v>47.981606440999997</v>
+      </c>
+      <c r="W13" s="5">
+        <v>7.9648917770000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>91</v>
       </c>
@@ -1411,8 +1541,14 @@
       <c r="U14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" s="4">
+        <v>47.984611233000003</v>
+      </c>
+      <c r="W14" s="5">
+        <v>7.969993552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>98</v>
       </c>
@@ -1476,8 +1612,14 @@
       <c r="U15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" s="4">
+        <v>47.984158940999997</v>
+      </c>
+      <c r="W15" s="5">
+        <v>7.9696646529999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>200</v>
       </c>
@@ -1541,8 +1683,14 @@
       <c r="U16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16" s="4">
+        <v>47.981892094000003</v>
+      </c>
+      <c r="W16" s="5">
+        <v>7.9624063280000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>109</v>
       </c>
@@ -1606,8 +1754,14 @@
       <c r="U17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" s="4">
+        <v>47.982151356000003</v>
+      </c>
+      <c r="W17" s="5">
+        <v>7.9576000670000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>117</v>
       </c>
@@ -1671,8 +1825,14 @@
       <c r="U18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" s="4">
+        <v>47.982538149</v>
+      </c>
+      <c r="W18" s="5">
+        <v>7.9586884199999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>281</v>
       </c>
@@ -1736,8 +1896,14 @@
       <c r="U19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19" s="4">
+        <v>47.985816348</v>
+      </c>
+      <c r="W19" s="5">
+        <v>7.9741537600000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>269</v>
       </c>
@@ -1799,8 +1965,14 @@
       <c r="U20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20" s="4">
+        <v>47.981833436999999</v>
+      </c>
+      <c r="W20" s="5">
+        <v>7.9583908250000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>77</v>
       </c>
@@ -1864,8 +2036,14 @@
       <c r="U21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21" s="4">
+        <v>47.980353524000002</v>
+      </c>
+      <c r="W21" s="5">
+        <v>7.9642162140000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>196</v>
       </c>
@@ -1929,8 +2107,14 @@
       <c r="U22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22" s="4">
+        <v>47.983274465999997</v>
+      </c>
+      <c r="W22" s="5">
+        <v>7.9577459490000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>16</v>
       </c>
@@ -1994,8 +2178,14 @@
       <c r="U23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23" s="4">
+        <v>47.983436449000003</v>
+      </c>
+      <c r="W23" s="5">
+        <v>7.9647720480000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>168</v>
       </c>
@@ -2059,8 +2249,14 @@
       <c r="U24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24" s="4">
+        <v>47.982137919000003</v>
+      </c>
+      <c r="W24" s="5">
+        <v>7.9583977340000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>102</v>
       </c>
@@ -2124,8 +2320,14 @@
       <c r="U25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25" s="4">
+        <v>47.982325533000001</v>
+      </c>
+      <c r="W25" s="5">
+        <v>7.9651021240000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>204</v>
       </c>
@@ -2189,8 +2391,14 @@
       <c r="U26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="V26" s="4">
+        <v>47.985207869</v>
+      </c>
+      <c r="W26" s="5">
+        <v>7.957294664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>205</v>
       </c>
@@ -2254,8 +2462,14 @@
       <c r="U27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="V27" s="4">
+        <v>47.984081414999999</v>
+      </c>
+      <c r="W27" s="5">
+        <v>7.9666863809999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>271</v>
       </c>
@@ -2319,8 +2533,14 @@
       <c r="U28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28" s="4">
+        <v>47.980992254</v>
+      </c>
+      <c r="W28" s="5">
+        <v>7.961224327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>48</v>
       </c>
@@ -2382,8 +2602,14 @@
       <c r="U29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="V29" s="4">
+        <v>47.980596411000001</v>
+      </c>
+      <c r="W29" s="5">
+        <v>7.9611425179999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>287</v>
       </c>
@@ -2445,8 +2671,14 @@
       <c r="U30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="V30" s="4">
+        <v>47.982822329999998</v>
+      </c>
+      <c r="W30" s="5">
+        <v>7.9584443929999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>25</v>
       </c>
@@ -2510,8 +2742,14 @@
       <c r="U31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="V31" s="4">
+        <v>47.983418780000001</v>
+      </c>
+      <c r="W31" s="5">
+        <v>7.9641255429999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>15</v>
       </c>
@@ -2575,8 +2813,14 @@
       <c r="U32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="V32" s="4">
+        <v>47.981554889999998</v>
+      </c>
+      <c r="W32" s="5">
+        <v>7.9577649920000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>45</v>
       </c>
@@ -2640,8 +2884,14 @@
       <c r="U33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="V33" s="4">
+        <v>47.981817735</v>
+      </c>
+      <c r="W33" s="5">
+        <v>7.9602378370000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>125</v>
       </c>
@@ -2705,8 +2955,14 @@
       <c r="U34" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="V34" s="4">
+        <v>47.981737424999999</v>
+      </c>
+      <c r="W34" s="5">
+        <v>7.9610983659999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>113</v>
       </c>
@@ -2770,8 +3026,14 @@
       <c r="U35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="V35" s="4">
+        <v>47.980660999000001</v>
+      </c>
+      <c r="W35" s="5">
+        <v>7.9580131139999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>284</v>
       </c>
@@ -2835,8 +3097,14 @@
       <c r="U36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="V36" s="4">
+        <v>47.981363074000001</v>
+      </c>
+      <c r="W36" s="5">
+        <v>7.9583651340000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>121</v>
       </c>
@@ -2900,8 +3168,14 @@
       <c r="U37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="V37" s="4">
+        <v>47.981834722000002</v>
+      </c>
+      <c r="W37" s="5">
+        <v>7.9619268630000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>52</v>
       </c>
@@ -2959,8 +3233,14 @@
       <c r="U38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="V38" s="4">
+        <v>47.981057317000001</v>
+      </c>
+      <c r="W38" s="5">
+        <v>7.963536811</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>207</v>
       </c>
@@ -3024,8 +3304,14 @@
       <c r="U39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="V39" s="4">
+        <v>47.983994481000003</v>
+      </c>
+      <c r="W39" s="5">
+        <v>7.9520623779999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>63</v>
       </c>
@@ -3089,8 +3375,14 @@
       <c r="U40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="V40" s="4">
+        <v>47.984305992000003</v>
+      </c>
+      <c r="W40" s="5">
+        <v>7.9707019370000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>43</v>
       </c>
@@ -3154,8 +3446,14 @@
       <c r="U41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="V41" s="4">
+        <v>47.981735532999998</v>
+      </c>
+      <c r="W41" s="5">
+        <v>7.9620346959999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>175</v>
       </c>
@@ -3219,8 +3517,14 @@
       <c r="U42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="V42" s="4">
+        <v>47.981932493999999</v>
+      </c>
+      <c r="W42" s="5">
+        <v>7.9627369320000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>214</v>
       </c>
@@ -3284,8 +3588,14 @@
       <c r="U43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="V43" s="4">
+        <v>47.984425776999998</v>
+      </c>
+      <c r="W43" s="5">
+        <v>7.963281297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>251</v>
       </c>
@@ -3349,8 +3659,14 @@
       <c r="U44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="V44" s="4">
+        <v>47.981732723999997</v>
+      </c>
+      <c r="W44" s="5">
+        <v>7.9663678139999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>213</v>
       </c>
@@ -3414,8 +3730,14 @@
       <c r="U45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
+      <c r="V45" s="4">
+        <v>47.983253531000003</v>
+      </c>
+      <c r="W45" s="5">
+        <v>7.9588076650000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>65</v>
       </c>
@@ -3479,8 +3801,14 @@
       <c r="U46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="V46" s="4">
+        <v>47.979592916000001</v>
+      </c>
+      <c r="W46" s="5">
+        <v>7.9607007650000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>159</v>
       </c>
@@ -3544,8 +3872,14 @@
       <c r="U47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:21">
+      <c r="V47" s="4">
+        <v>47.981197344000002</v>
+      </c>
+      <c r="W47" s="5">
+        <v>7.9661734969999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>29</v>
       </c>
@@ -3609,8 +3943,14 @@
       <c r="U48" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:21">
+      <c r="V48" s="4">
+        <v>47.984316675999999</v>
+      </c>
+      <c r="W48" s="5">
+        <v>7.9640208640000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>14</v>
       </c>
@@ -3672,8 +4012,14 @@
       <c r="U49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="V49" s="4">
+        <v>47.982904112</v>
+      </c>
+      <c r="W49" s="5">
+        <v>7.9578914689999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>165</v>
       </c>
@@ -3737,8 +4083,14 @@
       <c r="U50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="V50" s="4">
+        <v>47.982320823000002</v>
+      </c>
+      <c r="W50" s="5">
+        <v>7.9590535579999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>145</v>
       </c>
@@ -3802,8 +4154,14 @@
       <c r="U51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:21">
+      <c r="V51" s="4">
+        <v>47.985906829999998</v>
+      </c>
+      <c r="W51" s="5">
+        <v>7.9744177369999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>202</v>
       </c>
@@ -3867,8 +4225,14 @@
       <c r="U52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:21">
+      <c r="V52" s="4">
+        <v>47.980039798999996</v>
+      </c>
+      <c r="W52" s="5">
+        <v>7.964698233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>255</v>
       </c>
@@ -3932,8 +4296,14 @@
       <c r="U53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:21">
+      <c r="V53" s="4">
+        <v>47.983034408000002</v>
+      </c>
+      <c r="W53" s="5">
+        <v>7.9644155919999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>169</v>
       </c>
@@ -3997,8 +4367,14 @@
       <c r="U54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:21">
+      <c r="V54" s="4">
+        <v>47.985906249000003</v>
+      </c>
+      <c r="W54" s="5">
+        <v>7.9723675920000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>274</v>
       </c>
@@ -4062,8 +4438,14 @@
       <c r="U55" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:21">
+      <c r="V55" s="4">
+        <v>47.981526875999997</v>
+      </c>
+      <c r="W55" s="5">
+        <v>7.9598473570000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>254</v>
       </c>
@@ -4127,8 +4509,14 @@
       <c r="U56" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:21">
+      <c r="V56" s="4">
+        <v>47.980700024999997</v>
+      </c>
+      <c r="W56" s="5">
+        <v>7.9620930940000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>61</v>
       </c>
@@ -4192,8 +4580,14 @@
       <c r="U57" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:21">
+      <c r="V57" s="4">
+        <v>47.984225551000002</v>
+      </c>
+      <c r="W57" s="5">
+        <v>7.9556488820000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>2</v>
       </c>
@@ -4257,8 +4651,14 @@
       <c r="U58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:21">
+      <c r="V58" s="4">
+        <v>47.981166837000004</v>
+      </c>
+      <c r="W58" s="5">
+        <v>7.9605145820000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>86</v>
       </c>
@@ -4322,8 +4722,14 @@
       <c r="U59" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:21">
+      <c r="V59" s="4">
+        <v>47.981254129</v>
+      </c>
+      <c r="W59" s="5">
+        <v>7.9572718480000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4387,8 +4793,14 @@
       <c r="U60" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:21">
+      <c r="V60" s="4">
+        <v>47.984216185999998</v>
+      </c>
+      <c r="W60" s="5">
+        <v>7.9553955380000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>74</v>
       </c>
@@ -4452,8 +4864,14 @@
       <c r="U61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:21">
+      <c r="V61" s="4">
+        <v>47.979481939999999</v>
+      </c>
+      <c r="W61" s="5">
+        <v>7.9635350139999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>133</v>
       </c>
@@ -4517,8 +4935,14 @@
       <c r="U62" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:21">
+      <c r="V62" s="4">
+        <v>47.985073030000002</v>
+      </c>
+      <c r="W62" s="5">
+        <v>7.9579750899999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>115</v>
       </c>
@@ -4582,8 +5006,14 @@
       <c r="U63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:21">
+      <c r="V63" s="4">
+        <v>47.981848851999999</v>
+      </c>
+      <c r="W63" s="5">
+        <v>7.9632615229999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>103</v>
       </c>
@@ -4647,8 +5077,14 @@
       <c r="U64" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:21">
+      <c r="V64" s="4">
+        <v>47.979816473</v>
+      </c>
+      <c r="W64" s="5">
+        <v>7.9611185029999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>138</v>
       </c>
@@ -4712,8 +5148,14 @@
       <c r="U65" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:21">
+      <c r="V65" s="4">
+        <v>47.981955499999998</v>
+      </c>
+      <c r="W65" s="5">
+        <v>7.957890828</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>70</v>
       </c>
@@ -4775,8 +5217,14 @@
       <c r="U66" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:21">
+      <c r="V66" s="4">
+        <v>47.983319983999998</v>
+      </c>
+      <c r="W66" s="5">
+        <v>7.9655402889999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>173</v>
       </c>
@@ -4840,8 +5288,14 @@
       <c r="U67" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:21">
+      <c r="V67" s="4">
+        <v>47.984342566000002</v>
+      </c>
+      <c r="W67" s="5">
+        <v>7.9614963520000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>144</v>
       </c>
@@ -4905,8 +5359,14 @@
       <c r="U68" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:21">
+      <c r="V68" s="4">
+        <v>47.982776526000002</v>
+      </c>
+      <c r="W68" s="5">
+        <v>7.96655815</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>212</v>
       </c>
@@ -4966,8 +5426,14 @@
       <c r="U69" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:21">
+      <c r="V69" s="4">
+        <v>47.982130077999997</v>
+      </c>
+      <c r="W69" s="5">
+        <v>7.9588951659999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>234</v>
       </c>
@@ -5031,8 +5497,14 @@
       <c r="U70" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:21">
+      <c r="V70" s="4">
+        <v>47.982409277999999</v>
+      </c>
+      <c r="W70" s="5">
+        <v>7.9644120960000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>156</v>
       </c>
@@ -5096,8 +5568,14 @@
       <c r="U71" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:21">
+      <c r="V71" s="4">
+        <v>47.984021296000002</v>
+      </c>
+      <c r="W71" s="5">
+        <v>7.9515711500000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>146</v>
       </c>
@@ -5161,8 +5639,14 @@
       <c r="U72" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:21">
+      <c r="V72" s="4">
+        <v>47.982621326</v>
+      </c>
+      <c r="W72" s="5">
+        <v>7.9576374579999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>152</v>
       </c>
@@ -5226,8 +5710,14 @@
       <c r="U73" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:21">
+      <c r="V73" s="4">
+        <v>47.982466516999999</v>
+      </c>
+      <c r="W73" s="5">
+        <v>7.9665234399999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>31</v>
       </c>
@@ -5287,8 +5777,14 @@
       <c r="U74" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:21">
+      <c r="V74" s="4">
+        <v>47.983750985999997</v>
+      </c>
+      <c r="W74" s="5">
+        <v>7.9591961879999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>279</v>
       </c>
@@ -5352,8 +5848,14 @@
       <c r="U75" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:21">
+      <c r="V75" s="4">
+        <v>47.984399736</v>
+      </c>
+      <c r="W75" s="5">
+        <v>7.9618206479999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>36</v>
       </c>
@@ -5417,8 +5919,14 @@
       <c r="U76" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:21">
+      <c r="V76" s="4">
+        <v>47.981198196000001</v>
+      </c>
+      <c r="W76" s="5">
+        <v>7.9588608020000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5482,8 +5990,14 @@
       <c r="U77" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:21">
+      <c r="V77" s="4">
+        <v>47.981804210999996</v>
+      </c>
+      <c r="W77" s="5">
+        <v>7.9597322549999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>286</v>
       </c>
@@ -5547,8 +6061,14 @@
       <c r="U78" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:21">
+      <c r="V78" s="4">
+        <v>47.98441983</v>
+      </c>
+      <c r="W78" s="5">
+        <v>7.9651704289999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>215</v>
       </c>
@@ -5612,8 +6132,14 @@
       <c r="U79" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:21">
+      <c r="V79" s="4">
+        <v>47.980269598</v>
+      </c>
+      <c r="W79" s="5">
+        <v>7.9657448039999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>56</v>
       </c>
@@ -5675,8 +6201,14 @@
       <c r="U80" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:21">
+      <c r="V80" s="4">
+        <v>47.979500676000001</v>
+      </c>
+      <c r="W80" s="5">
+        <v>7.9657817790000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>199</v>
       </c>
@@ -5738,8 +6270,14 @@
       <c r="U81" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:21">
+      <c r="V81" s="4">
+        <v>47.981680285000003</v>
+      </c>
+      <c r="W81" s="5">
+        <v>7.9572321370000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>154</v>
       </c>
@@ -5803,8 +6341,14 @@
       <c r="U82" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:21">
+      <c r="V82" s="4">
+        <v>47.977470201999999</v>
+      </c>
+      <c r="W82" s="5">
+        <v>7.9654084259999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>27</v>
       </c>
@@ -5868,8 +6412,14 @@
       <c r="U83" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:21">
+      <c r="V83" s="4">
+        <v>47.984828364000002</v>
+      </c>
+      <c r="W83" s="5">
+        <v>7.970563812</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>42</v>
       </c>
@@ -5933,8 +6483,14 @@
       <c r="U84" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:21">
+      <c r="V84" s="4">
+        <v>47.982366169000002</v>
+      </c>
+      <c r="W84" s="5">
+        <v>7.9620075799999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>49</v>
       </c>
@@ -5996,8 +6552,14 @@
       <c r="U85" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:21">
+      <c r="V85" s="4">
+        <v>47.980944526000002</v>
+      </c>
+      <c r="W85" s="5">
+        <v>7.9629420780000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>96</v>
       </c>
@@ -6061,8 +6623,14 @@
       <c r="U86" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:21">
+      <c r="V86" s="4">
+        <v>47.985348457000001</v>
+      </c>
+      <c r="W86" s="5">
+        <v>7.9717951559999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>66</v>
       </c>
@@ -6126,8 +6694,14 @@
       <c r="U87" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:21">
+      <c r="V87" s="4">
+        <v>47.983557951000002</v>
+      </c>
+      <c r="W87" s="5">
+        <v>7.9578428580000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>104</v>
       </c>
@@ -6191,8 +6765,14 @@
       <c r="U88" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:21">
+      <c r="V88" s="4">
+        <v>47.983845525</v>
+      </c>
+      <c r="W88" s="5">
+        <v>7.9642783579999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>13</v>
       </c>
@@ -6256,8 +6836,14 @@
       <c r="U89" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:21">
+      <c r="V89" s="4">
+        <v>47.98324598</v>
+      </c>
+      <c r="W89" s="5">
+        <v>7.9582438839999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>221</v>
       </c>
@@ -6319,8 +6905,14 @@
       <c r="U90" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:21">
+      <c r="V90" s="4">
+        <v>47.977368945999999</v>
+      </c>
+      <c r="W90" s="5">
+        <v>7.964658172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>51</v>
       </c>
@@ -6384,8 +6976,14 @@
       <c r="U91" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:21">
+      <c r="V91" s="4">
+        <v>47.981126312999997</v>
+      </c>
+      <c r="W91" s="5">
+        <v>7.95957588</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>177</v>
       </c>
@@ -6447,8 +7045,14 @@
       <c r="U92" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:21">
+      <c r="V92" s="4">
+        <v>47.977406643999998</v>
+      </c>
+      <c r="W92" s="5">
+        <v>7.9641723000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>111</v>
       </c>
@@ -6512,8 +7116,14 @@
       <c r="U93" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:21">
+      <c r="V93" s="4">
+        <v>47.985775371000003</v>
+      </c>
+      <c r="W93" s="5">
+        <v>7.9729414810000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>242</v>
       </c>
@@ -6575,8 +7185,14 @@
       <c r="U94" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:21">
+      <c r="V94" s="4">
+        <v>47.984410953999998</v>
+      </c>
+      <c r="W94" s="5">
+        <v>7.9678803550000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>143</v>
       </c>
@@ -6640,8 +7256,14 @@
       <c r="U95" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:21">
+      <c r="V95" s="4">
+        <v>47.981964048000002</v>
+      </c>
+      <c r="W95" s="5">
+        <v>7.9632811490000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>278</v>
       </c>
@@ -6705,8 +7327,14 @@
       <c r="U96" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:21">
+      <c r="V96" s="4">
+        <v>47.981913378999998</v>
+      </c>
+      <c r="W96" s="5">
+        <v>7.9630151930000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>62</v>
       </c>
@@ -6768,8 +7396,14 @@
       <c r="U97" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:21">
+      <c r="V97" s="4">
+        <v>47.982188823999998</v>
+      </c>
+      <c r="W97" s="5">
+        <v>7.9581092160000004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>176</v>
       </c>
@@ -6833,8 +7467,14 @@
       <c r="U98" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:21">
+      <c r="V98" s="4">
+        <v>47.983562583999998</v>
+      </c>
+      <c r="W98" s="5">
+        <v>7.9595384689999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>134</v>
       </c>
@@ -6896,8 +7536,14 @@
       <c r="U99" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:21">
+      <c r="V99" s="4">
+        <v>47.977589721999998</v>
+      </c>
+      <c r="W99" s="5">
+        <v>7.961855549</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>256</v>
       </c>
@@ -6959,8 +7605,10 @@
       <c r="U100" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:21">
+      <c r="V100" s="4"/>
+      <c r="W100" s="5"/>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>55</v>
       </c>
@@ -7022,8 +7670,10 @@
       <c r="U101" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:21">
+      <c r="V101" s="6"/>
+      <c r="W101" s="8"/>
+    </row>
+    <row r="102" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>235</v>
       </c>
@@ -7087,8 +7737,14 @@
       <c r="U102" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:21">
+      <c r="V102" s="4">
+        <v>47.981862528999997</v>
+      </c>
+      <c r="W102" s="5">
+        <v>7.9586819259999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>58</v>
       </c>
@@ -7150,8 +7806,10 @@
       <c r="U103" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:21">
+      <c r="V103" s="6"/>
+      <c r="W103" s="8"/>
+    </row>
+    <row r="104" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>194</v>
       </c>
@@ -7215,8 +7873,14 @@
       <c r="U104" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:21">
+      <c r="V104" s="4">
+        <v>47.984538292000003</v>
+      </c>
+      <c r="W104" s="5">
+        <v>7.9591906840000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>282</v>
       </c>
@@ -7278,8 +7942,10 @@
       <c r="U105" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:21">
+      <c r="V105" s="6"/>
+      <c r="W105" s="8"/>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>137</v>
       </c>
@@ -7341,8 +8007,10 @@
       <c r="U106" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:21">
+      <c r="V106" s="6"/>
+      <c r="W106" s="8"/>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>118</v>
       </c>
@@ -7402,8 +8070,10 @@
       <c r="U107" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:21">
+      <c r="V107" s="6"/>
+      <c r="W107" s="8"/>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>220</v>
       </c>
@@ -7465,8 +8135,10 @@
       <c r="U108" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:21">
+      <c r="V108" s="6"/>
+      <c r="W108" s="8"/>
+    </row>
+    <row r="109" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>24</v>
       </c>
@@ -7530,8 +8202,14 @@
       <c r="U109" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:21">
+      <c r="V109" s="4">
+        <v>47.980792287</v>
+      </c>
+      <c r="W109" s="5">
+        <v>7.9597698870000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>187</v>
       </c>
@@ -7593,8 +8271,10 @@
       <c r="U110" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:21">
+      <c r="V110" s="6"/>
+      <c r="W110" s="8"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>190</v>
       </c>
@@ -7656,8 +8336,10 @@
       <c r="U111" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:21">
+      <c r="V111" s="6"/>
+      <c r="W111" s="8"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>189</v>
       </c>
@@ -7719,8 +8401,10 @@
       <c r="U112" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:21">
+      <c r="V112" s="6"/>
+      <c r="W112" s="8"/>
+    </row>
+    <row r="113" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>195</v>
       </c>
@@ -7784,8 +8468,14 @@
       <c r="U113" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:21">
+      <c r="V113" s="4">
+        <v>47.979957253000002</v>
+      </c>
+      <c r="W113" s="5">
+        <v>7.9620744630000004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>231</v>
       </c>
@@ -7843,8 +8533,10 @@
       <c r="U114" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:21">
+      <c r="V114" s="6"/>
+      <c r="W114" s="8"/>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>239</v>
       </c>
@@ -7906,8 +8598,10 @@
       <c r="U115" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:21">
+      <c r="V115" s="6"/>
+      <c r="W115" s="8"/>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>289</v>
       </c>
@@ -7969,8 +8663,10 @@
       <c r="U116" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:21">
+      <c r="V116" s="6"/>
+      <c r="W116" s="8"/>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>184</v>
       </c>
@@ -8032,8 +8728,10 @@
       <c r="U117" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:21">
+      <c r="V117" s="6"/>
+      <c r="W117" s="8"/>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>126</v>
       </c>
@@ -8095,8 +8793,10 @@
       <c r="U118" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:21">
+      <c r="V118" s="6"/>
+      <c r="W118" s="8"/>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>209</v>
       </c>
@@ -8158,8 +8858,10 @@
       <c r="U119" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:21">
+      <c r="V119" s="6"/>
+      <c r="W119" s="8"/>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>290</v>
       </c>
@@ -8209,8 +8911,10 @@
       <c r="U120" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:21">
+      <c r="V120" s="6"/>
+      <c r="W120" s="8"/>
+    </row>
+    <row r="121" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>67</v>
       </c>
@@ -8274,8 +8978,14 @@
       <c r="U121" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:21">
+      <c r="V121" s="4">
+        <v>47.984671616</v>
+      </c>
+      <c r="W121" s="5">
+        <v>7.96007015</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>170</v>
       </c>
@@ -8337,8 +9047,10 @@
       <c r="U122" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:21">
+      <c r="V122" s="6"/>
+      <c r="W122" s="8"/>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>230</v>
       </c>
@@ -8398,8 +9110,10 @@
       <c r="U123" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:21">
+      <c r="V123" s="6"/>
+      <c r="W123" s="8"/>
+    </row>
+    <row r="124" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>151</v>
       </c>
@@ -8463,8 +9177,14 @@
       <c r="U124" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:21">
+      <c r="V124" s="4">
+        <v>47.979804313999999</v>
+      </c>
+      <c r="W124" s="5">
+        <v>7.9585233449999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>283</v>
       </c>
@@ -8526,8 +9246,10 @@
       <c r="U125" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:21">
+      <c r="V125" s="6"/>
+      <c r="W125" s="8"/>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>211</v>
       </c>
@@ -8589,8 +9311,10 @@
       <c r="U126" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:21">
+      <c r="V126" s="6"/>
+      <c r="W126" s="8"/>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>69</v>
       </c>
@@ -8652,8 +9376,10 @@
       <c r="U127" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:21">
+      <c r="V127" s="6"/>
+      <c r="W127" s="8"/>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>35</v>
       </c>
@@ -8715,8 +9441,10 @@
       <c r="U128" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:21">
+      <c r="V128" s="6"/>
+      <c r="W128" s="8"/>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>233</v>
       </c>
@@ -8778,8 +9506,10 @@
       <c r="U129" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:21">
+      <c r="V129" s="6"/>
+      <c r="W129" s="8"/>
+    </row>
+    <row r="130" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>208</v>
       </c>
@@ -8843,8 +9573,14 @@
       <c r="U130" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:21">
+      <c r="V130" s="4">
+        <v>47.982509933999999</v>
+      </c>
+      <c r="W130" s="5">
+        <v>7.9578895039999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>155</v>
       </c>
@@ -8906,8 +9642,10 @@
       <c r="U131" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:21">
+      <c r="V131" s="6"/>
+      <c r="W131" s="8"/>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>198</v>
       </c>
@@ -8969,8 +9707,10 @@
       <c r="U132" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:21">
+      <c r="V132" s="6"/>
+      <c r="W132" s="8"/>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>40</v>
       </c>
@@ -9032,8 +9772,10 @@
       <c r="U133" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:21">
+      <c r="V133" s="6"/>
+      <c r="W133" s="8"/>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>119</v>
       </c>
@@ -9094,7 +9836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>139</v>
       </c>
@@ -9156,8 +9898,14 @@
       <c r="U135" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:21">
+      <c r="V135" s="7">
+        <v>47.979837766999999</v>
+      </c>
+      <c r="W135" s="7">
+        <v>7.9590974030000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>180</v>
       </c>
@@ -9220,7 +9968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>188</v>
       </c>
@@ -9283,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>157</v>
       </c>
@@ -9346,7 +10094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>80</v>
       </c>
@@ -9409,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>203</v>
       </c>
@@ -9472,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>280</v>
       </c>
@@ -9533,7 +10281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>37</v>
       </c>
@@ -9594,7 +10342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>193</v>
       </c>
@@ -9649,7 +10397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>53</v>
       </c>
@@ -9710,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>22</v>
       </c>
@@ -9773,7 +10521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>85</v>
       </c>
@@ -9836,7 +10584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>232</v>
       </c>
@@ -9899,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>258</v>
       </c>
@@ -9960,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>265</v>
       </c>
@@ -10023,7 +10771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>54</v>
       </c>
@@ -10084,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>237</v>
       </c>
@@ -10148,8 +10896,14 @@
       <c r="U151" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:21">
+      <c r="V151" s="7">
+        <v>47.984142151</v>
+      </c>
+      <c r="W151" s="7">
+        <v>7.9693654250000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>266</v>
       </c>
@@ -10212,7 +10966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>236</v>
       </c>
@@ -10275,7 +11029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>88</v>
       </c>
@@ -10339,8 +11093,14 @@
       <c r="U154" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:21">
+      <c r="V154" s="7">
+        <v>47.984262387999998</v>
+      </c>
+      <c r="W154" s="7">
+        <v>7.9712907739999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>10</v>
       </c>
@@ -10403,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>11</v>
       </c>
@@ -10465,8 +11225,14 @@
       <c r="U156" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:21">
+      <c r="V156" s="7">
+        <v>47.982446768999999</v>
+      </c>
+      <c r="W156" s="7">
+        <v>7.9641230519999997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>174</v>
       </c>
@@ -10529,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>185</v>
       </c>
@@ -10592,7 +11358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>161</v>
       </c>
@@ -10655,7 +11421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>226</v>
       </c>
@@ -10714,7 +11480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>273</v>
       </c>
@@ -10777,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>227</v>
       </c>
@@ -10841,8 +11607,14 @@
       <c r="U162" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:21">
+      <c r="V162" s="7">
+        <v>47.983625832000001</v>
+      </c>
+      <c r="W162" s="7">
+        <v>7.9581410269999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>260</v>
       </c>
@@ -10901,7 +11673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>223</v>
       </c>
@@ -10964,7 +11736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>107</v>
       </c>
@@ -11027,7 +11799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>183</v>
       </c>
@@ -11090,7 +11862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>250</v>
       </c>
@@ -11153,7 +11925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>253</v>
       </c>
@@ -11216,7 +11988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>44</v>
       </c>
@@ -11279,7 +12051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>182</v>
       </c>
@@ -11340,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>228</v>
       </c>
@@ -11403,7 +12175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>285</v>
       </c>
@@ -11466,7 +12238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>83</v>
       </c>
@@ -11529,7 +12301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>248</v>
       </c>
@@ -11593,8 +12365,14 @@
       <c r="U174" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:21">
+      <c r="V174" s="7">
+        <v>47.977791609000001</v>
+      </c>
+      <c r="W174" s="7">
+        <v>7.9632792520000004</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>136</v>
       </c>
@@ -11657,7 +12435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>172</v>
       </c>
@@ -11720,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>46</v>
       </c>
@@ -11783,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>114</v>
       </c>
@@ -11846,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>166</v>
       </c>
@@ -11909,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>164</v>
       </c>
@@ -11971,8 +12749,14 @@
       <c r="U180" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:21">
+      <c r="V180" s="7">
+        <v>47.981528462</v>
+      </c>
+      <c r="W180" s="7">
+        <v>7.9603259670000002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>101</v>
       </c>
@@ -12035,7 +12819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>21</v>
       </c>
@@ -12098,7 +12882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>158</v>
       </c>
@@ -12161,7 +12945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>108</v>
       </c>
@@ -12224,7 +13008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>34</v>
       </c>
@@ -12286,8 +13070,14 @@
       <c r="U185" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:21">
+      <c r="V185" s="7">
+        <v>47.984384568000003</v>
+      </c>
+      <c r="W185" s="7">
+        <v>7.9608612680000004</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>276</v>
       </c>
@@ -12350,7 +13140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>222</v>
       </c>
@@ -12413,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>130</v>
       </c>
@@ -12476,7 +13266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>275</v>
       </c>
@@ -12535,7 +13325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>72</v>
       </c>
@@ -12598,7 +13388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>218</v>
       </c>
@@ -12662,8 +13452,14 @@
       <c r="U191" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:21">
+      <c r="V191" s="7">
+        <v>47.984407198</v>
+      </c>
+      <c r="W191" s="7">
+        <v>7.9690101020000004</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>267</v>
       </c>
@@ -12726,7 +13522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>76</v>
       </c>
@@ -12789,7 +13585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>241</v>
       </c>
@@ -12850,7 +13646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>171</v>
       </c>
@@ -12913,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>142</v>
       </c>
@@ -12976,7 +13772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>89</v>
       </c>
@@ -13040,8 +13836,14 @@
       <c r="U197" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:21">
+      <c r="V197" s="7">
+        <v>47.980276081</v>
+      </c>
+      <c r="W197" s="7">
+        <v>7.9604282</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>105</v>
       </c>
@@ -13102,7 +13904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>39</v>
       </c>
@@ -13165,7 +13967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>167</v>
       </c>
@@ -13229,8 +14031,14 @@
       <c r="U200" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:21">
+      <c r="V200" s="7">
+        <v>47.97767657</v>
+      </c>
+      <c r="W200" s="7">
+        <v>7.964833284</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>140</v>
       </c>
@@ -13293,7 +14101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>124</v>
       </c>
@@ -13356,7 +14164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>131</v>
       </c>
@@ -13419,7 +14227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>17</v>
       </c>
@@ -13482,7 +14290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>73</v>
       </c>
@@ -13545,7 +14353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>97</v>
       </c>
@@ -13606,7 +14414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>5</v>
       </c>
@@ -13667,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>123</v>
       </c>
@@ -13730,7 +14538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:21">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>9</v>
       </c>
@@ -13793,7 +14601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:21">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>99</v>
       </c>
@@ -13856,7 +14664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:21">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>84</v>
       </c>
@@ -13919,7 +14727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:21">
+    <row r="212" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>229</v>
       </c>
@@ -13983,8 +14791,14 @@
       <c r="U212" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:21">
+      <c r="V212" s="7">
+        <v>47.984500406000002</v>
+      </c>
+      <c r="W212" s="7">
+        <v>7.9720562409999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>116</v>
       </c>
@@ -14047,7 +14861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:21">
+    <row r="214" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>238</v>
       </c>
@@ -14109,8 +14923,14 @@
       <c r="U214" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:21">
+      <c r="V214" s="7">
+        <v>47.980831160000001</v>
+      </c>
+      <c r="W214" s="7">
+        <v>7.9587594079999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>217</v>
       </c>
@@ -14174,8 +14994,14 @@
       <c r="U215" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:21">
+      <c r="V215" s="7">
+        <v>47.982834838999999</v>
+      </c>
+      <c r="W215" s="7">
+        <v>7.9591096139999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>122</v>
       </c>
@@ -14238,7 +15064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:21">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>240</v>
       </c>
@@ -14301,7 +15127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:21">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>95</v>
       </c>
@@ -14364,7 +15190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:21">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>110</v>
       </c>
@@ -14427,7 +15253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:21">
+    <row r="220" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>41</v>
       </c>
@@ -14491,8 +15317,14 @@
       <c r="U220" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:21">
+      <c r="V220" s="7">
+        <v>47.981305204000002</v>
+      </c>
+      <c r="W220" s="7">
+        <v>7.9615810089999997</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>206</v>
       </c>
@@ -14555,7 +15387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:21">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>23</v>
       </c>
@@ -14618,7 +15450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:21">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>257</v>
       </c>
@@ -14681,7 +15513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:21">
+    <row r="224" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>163</v>
       </c>
@@ -14745,8 +15577,14 @@
       <c r="U224" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:21">
+      <c r="V224" s="7">
+        <v>47.983342346000001</v>
+      </c>
+      <c r="W224" s="7">
+        <v>7.9652242659999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>64</v>
       </c>
@@ -14808,8 +15646,14 @@
       <c r="U225" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="226" spans="1:21">
+      <c r="V225" s="7">
+        <v>47.984293242</v>
+      </c>
+      <c r="W225" s="7">
+        <v>7.9593585310000003</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>100</v>
       </c>
@@ -14872,7 +15716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:21">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>120</v>
       </c>
@@ -14935,7 +15779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:21">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>160</v>
       </c>
@@ -14998,7 +15842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:21">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>224</v>
       </c>
@@ -15061,7 +15905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:21">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>94</v>
       </c>
@@ -15122,7 +15966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:21">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>60</v>
       </c>
@@ -15185,7 +16029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:21">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>263</v>
       </c>
@@ -15248,7 +16092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:21">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>191</v>
       </c>
@@ -15311,7 +16155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:21">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>147</v>
       </c>
@@ -15374,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:21">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>179</v>
       </c>
@@ -15437,7 +16281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:21">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>93</v>
       </c>
@@ -15500,7 +16344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:21">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>57</v>
       </c>
@@ -15563,7 +16407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:21">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>112</v>
       </c>
@@ -15626,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:21">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>268</v>
       </c>
@@ -15689,7 +16533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:21">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>243</v>
       </c>
@@ -15752,7 +16596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:21">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>219</v>
       </c>
@@ -15815,7 +16659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:21">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>247</v>
       </c>
@@ -15878,7 +16722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:21">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>38</v>
       </c>
@@ -15941,7 +16785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:21">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>33</v>
       </c>
@@ -16004,7 +16848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:21">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>68</v>
       </c>
@@ -16067,7 +16911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:21">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>4</v>
       </c>
@@ -16130,7 +16974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:21">
+    <row r="247" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>150</v>
       </c>
@@ -16194,8 +17038,14 @@
       <c r="U247" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:21">
+      <c r="V247" s="7">
+        <v>47.983229350999999</v>
+      </c>
+      <c r="W247" s="7">
+        <v>7.9593421600000003</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>79</v>
       </c>
@@ -16257,8 +17107,14 @@
       <c r="U248" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:21">
+      <c r="V248" s="7">
+        <v>47.983904668000001</v>
+      </c>
+      <c r="W248" s="7">
+        <v>7.9647385870000003</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>178</v>
       </c>
@@ -16321,7 +17177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:21">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>127</v>
       </c>
@@ -16384,7 +17240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:21">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>153</v>
       </c>
@@ -16447,7 +17303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:21">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>261</v>
       </c>
@@ -16510,7 +17366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:21">
+    <row r="253" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>92</v>
       </c>
@@ -16574,8 +17430,14 @@
       <c r="U253" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:21">
+      <c r="V253" s="7">
+        <v>47.977384964000002</v>
+      </c>
+      <c r="W253" s="7">
+        <v>7.9635598930000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>90</v>
       </c>
@@ -16638,7 +17500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:21">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>264</v>
       </c>
@@ -16701,7 +17563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:21">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>277</v>
       </c>
@@ -16764,7 +17626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:21">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>181</v>
       </c>
@@ -16827,7 +17689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:21">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>197</v>
       </c>
@@ -16890,7 +17752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:21">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>225</v>
       </c>
@@ -16953,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:21">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>18</v>
       </c>
@@ -17016,7 +17878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:21">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1</v>
       </c>
@@ -17079,7 +17941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:21">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>252</v>
       </c>
@@ -17142,7 +18004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:21">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>47</v>
       </c>
@@ -17203,7 +18065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:21">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>245</v>
       </c>
@@ -17266,7 +18128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:21">
+    <row r="265" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>78</v>
       </c>
@@ -17330,8 +18192,14 @@
       <c r="U265" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:21">
+      <c r="V265" s="7">
+        <v>47.982566560000002</v>
+      </c>
+      <c r="W265" s="7">
+        <v>7.9583333200000004</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>162</v>
       </c>
@@ -17395,8 +18263,14 @@
       <c r="U266" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:21">
+      <c r="V266" s="7">
+        <v>47.984666457000003</v>
+      </c>
+      <c r="W266" s="7">
+        <v>7.9696395290000002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>81</v>
       </c>
@@ -17460,8 +18334,14 @@
       <c r="U267" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:21">
+      <c r="V267" s="7">
+        <v>47.982784453000001</v>
+      </c>
+      <c r="W267" s="7">
+        <v>7.9580559270000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>3</v>
       </c>
@@ -17524,7 +18404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:21">
+    <row r="269" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>82</v>
       </c>
@@ -17588,8 +18468,14 @@
       <c r="U269" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:21">
+      <c r="V269" s="7">
+        <v>47.979786255</v>
+      </c>
+      <c r="W269" s="7">
+        <v>7.9633207529999996</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>32</v>
       </c>
@@ -17652,7 +18538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:21">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>71</v>
       </c>
@@ -17715,7 +18601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:21">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>30</v>
       </c>
@@ -17774,7 +18660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:21">
+    <row r="273" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>28</v>
       </c>
@@ -17838,8 +18724,14 @@
       <c r="U273" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:21">
+      <c r="V273" s="7">
+        <v>47.983865162999997</v>
+      </c>
+      <c r="W273" s="7">
+        <v>7.9594593830000004</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>135</v>
       </c>
@@ -17900,7 +18792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:21">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>246</v>
       </c>
@@ -17963,7 +18855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:21">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>149</v>
       </c>
@@ -18026,7 +18918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:21">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>7</v>
       </c>
@@ -18089,7 +18981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:21">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>19</v>
       </c>
@@ -18152,7 +19044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:21">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>249</v>
       </c>
@@ -18213,7 +19105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:21">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>128</v>
       </c>
@@ -18276,7 +19168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:21">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>6</v>
       </c>
@@ -18339,7 +19231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:21">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>192</v>
       </c>
@@ -18402,7 +19294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:21">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>270</v>
       </c>
@@ -18465,7 +19357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:21">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>262</v>
       </c>
@@ -18528,7 +19420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:21">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>259</v>
       </c>
@@ -18591,7 +19483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:21">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>87</v>
       </c>
@@ -18654,7 +19546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:21">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>8</v>
       </c>
@@ -18717,7 +19609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:21">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>129</v>
       </c>
@@ -18778,7 +19670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:21">
+    <row r="289" spans="1:23" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>26</v>
       </c>
@@ -18842,8 +19734,14 @@
       <c r="U289" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:21">
+      <c r="V289" s="7">
+        <v>47.984653655000002</v>
+      </c>
+      <c r="W289" s="7">
+        <v>7.9567839549999997</v>
+      </c>
+    </row>
+    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>132</v>
       </c>
@@ -18904,7 +19802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:21">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>244</v>
       </c>
@@ -18967,7 +19865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:21">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -19028,7 +19926,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
